--- a/biology/Botanique/Pellaea/Pellaea.xlsx
+++ b/biology/Botanique/Pellaea/Pellaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pellaea est un genre de fougères issu de la sous-famille des Cheilanthoideae de la famille Pteridaceae[1]. Le nom vient du mot grec πελλος (pellos) qui signifie « sombre » et fait probablement référence à la teinte gris-bleu des feuilles de ces fougères[2]. Les espèces du genre Pellaea poussent principalement dans un environnement rocheux[2]. Une soixantaine d'espèces sont issues de ce genre[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pellaea est un genre de fougères issu de la sous-famille des Cheilanthoideae de la famille Pteridaceae. Le nom vient du mot grec πελλος (pellos) qui signifie « sombre » et fait probablement référence à la teinte gris-bleu des feuilles de ces fougères. Les espèces du genre Pellaea poussent principalement dans un environnement rocheux. Une soixantaine d'espèces sont issues de ce genre.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces sont situées sur le continent américain mais il en existe aussi quelques-unes en Asie, en Afrique, en Australie, en Nouvelle-Zélande ainsi que sur différentes îles du Pacifique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces sont situées sur le continent américain mais il en existe aussi quelques-unes en Asie, en Afrique, en Australie, en Nouvelle-Zélande ainsi que sur différentes îles du Pacifique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fougères du genre Pellaea se caractérisent par leur long rhizome horizontal[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fougères du genre Pellaea se caractérisent par leur long rhizome horizontal.
 Sur les autres projets Wikimedia :
 Pellaea, sur Wikimedia Commons
 </t>
@@ -575,7 +591,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pellaea bridgesii</t>
         </is>
